--- a/data/TopOnePercent/Central China Normal University.xlsx
+++ b/data/TopOnePercent/Central China Normal University.xlsx
@@ -184,16 +184,16 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>2214.0</v>
+        <v>2038.0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>55640.0</v>
+        <v>51529.0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>25.13</v>
+        <v>25.28</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>66.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="8">
@@ -206,16 +206,16 @@
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>2539.0</v>
+        <v>2457.0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>43184.0</v>
+        <v>41889.0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>17.01</v>
+        <v>17.05</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>74.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="9">
@@ -228,16 +228,16 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>442.0</v>
+        <v>415.0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>19832.0</v>
+        <v>19133.0</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>44.87</v>
+        <v>46.1</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="10">
@@ -250,16 +250,16 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>1029.0</v>
+        <v>1004.0</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>5424.0</v>
+        <v>5275.0</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>5.27</v>
+        <v>5.25</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="11">
@@ -268,20 +268,20 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>PLANT &amp; ANIMAL SCIENCE</t>
+          <t>ENGINEERING</t>
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>300.0</v>
+        <v>312.0</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>3256.0</v>
+        <v>2765.0</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>10.85</v>
+        <v>8.86</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="12">
@@ -294,22 +294,22 @@
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>8829.0</v>
+        <v>8522.0</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>151331.0</v>
+        <v>144643.0</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>17.14</v>
+        <v>16.97</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>212.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Copyright © 2019 Clarivate Analytics</t>
+          <t>Copyright © 2020 Clarivate Analytics</t>
         </is>
       </c>
     </row>
